--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/19.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/19.xlsx
@@ -479,13 +479,13 @@
         <v>-0.07296265025541292</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.825998552711392</v>
+        <v>-1.779102361796911</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1125562484856862</v>
+        <v>0.3165027442180553</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08589120242512241</v>
+        <v>-0.1857431461775772</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.07134954903683535</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.891608329829858</v>
+        <v>-1.908301248831775</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05474552706079829</v>
+        <v>0.2596471585729548</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08231096805261132</v>
+        <v>-0.1879846046646263</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.068988111762843</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.971884869462083</v>
+        <v>-2.035567907162702</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01353501669496225</v>
+        <v>0.2358669613072248</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1008123018610869</v>
+        <v>-0.2024568024825043</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.06824404484197857</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.020103978324431</v>
+        <v>-2.059960464787887</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.852669689374675e-05</v>
+        <v>0.2336749063949923</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1022248781484354</v>
+        <v>-0.2191283742607357</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.06784542672051978</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.982576778925477</v>
+        <v>-1.984165622288406</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01138260662671836</v>
+        <v>0.2747250076228436</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1141445579341227</v>
+        <v>-0.2548587473459904</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06278762863524887</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.852927770431172</v>
+        <v>-1.68487449660475</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1159400884002844</v>
+        <v>0.4047430181265806</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1177516288164107</v>
+        <v>-0.2237088785431136</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.04550118748979083</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.544575053253071</v>
+        <v>-1.34226619453777</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1734995225063521</v>
+        <v>0.4066166944455507</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09971383472226365</v>
+        <v>-0.197746385095979</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.00904059503171197</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.158940506965576</v>
+        <v>-0.9531880361093561</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1868006726248738</v>
+        <v>0.3673390227043292</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1048359485655938</v>
+        <v>-0.2353858098994552</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.04932288998246995</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6818141996418124</v>
+        <v>-0.500401833232577</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2127314501968175</v>
+        <v>0.3592057304798938</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06929404096945425</v>
+        <v>-0.1461617339393353</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1291661947982644</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.08472625393253362</v>
+        <v>0.05903448925969063</v>
       </c>
       <c r="F11" t="n">
-        <v>0.181416292890542</v>
+        <v>0.3269262885836796</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01982886416451001</v>
+        <v>-0.04956493683868483</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2307394496197598</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5849959253293179</v>
+        <v>0.7201226314214967</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0738006688437611</v>
+        <v>0.2226694977037503</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06512942658243397</v>
+        <v>0.08661571218291456</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.352405531103449</v>
       </c>
       <c r="E13" t="n">
-        <v>1.290596688400874</v>
+        <v>1.289745239136134</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03906393254711352</v>
+        <v>0.1602977894581404</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1882175183569595</v>
+        <v>0.2319555400072395</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4935818321665069</v>
       </c>
       <c r="E14" t="n">
-        <v>1.989162626386818</v>
+        <v>1.848580179841128</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2423199980734038</v>
+        <v>-0.0581959243353466</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2921937457255847</v>
+        <v>0.3939815777060379</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6517881025277876</v>
       </c>
       <c r="E15" t="n">
-        <v>2.722154927051129</v>
+        <v>2.514002418331906</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4878472260223951</v>
+        <v>-0.4291515096955457</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4085287957671558</v>
+        <v>0.5181352009028423</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8202701834622834</v>
       </c>
       <c r="E16" t="n">
-        <v>3.355167200620869</v>
+        <v>3.153704301884217</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7198153074066002</v>
+        <v>-0.5889305996212042</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5508586650517291</v>
+        <v>0.6969242984813843</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9931553303428539</v>
       </c>
       <c r="E17" t="n">
-        <v>3.972987569974167</v>
+        <v>3.628411663803999</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.052328202432046</v>
+        <v>-0.8826604685742712</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7143765687258532</v>
+        <v>0.8036805442946271</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.161241783566484</v>
       </c>
       <c r="E18" t="n">
-        <v>4.493384089789146</v>
+        <v>4.106349165627837</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.398338032113249</v>
+        <v>-1.177485755062778</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8662675545391291</v>
+        <v>0.9365090692768191</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.314550735961065</v>
       </c>
       <c r="E19" t="n">
-        <v>4.936375576518027</v>
+        <v>4.479251007867539</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.774225436065633</v>
+        <v>-1.426889028912503</v>
       </c>
       <c r="G19" t="n">
-        <v>1.054319517435444</v>
+        <v>1.137581008859675</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.451905639308244</v>
       </c>
       <c r="E20" t="n">
-        <v>5.309050528265979</v>
+        <v>4.836721856985515</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.065490005643285</v>
+        <v>-1.584814569901524</v>
       </c>
       <c r="G20" t="n">
-        <v>1.228400027389491</v>
+        <v>1.312833786354431</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.576757412993974</v>
       </c>
       <c r="E21" t="n">
-        <v>5.60105615146588</v>
+        <v>5.214383520186559</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.374392871271813</v>
+        <v>-1.814010561809909</v>
       </c>
       <c r="G21" t="n">
-        <v>1.394289912575488</v>
+        <v>1.466938174303626</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.690935297209409</v>
       </c>
       <c r="E22" t="n">
-        <v>5.804772097182438</v>
+        <v>5.394951756379176</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.727485099851415</v>
+        <v>-2.085294739937971</v>
       </c>
       <c r="G22" t="n">
-        <v>1.595832101000116</v>
+        <v>1.538975295513662</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.794624430573212</v>
       </c>
       <c r="E23" t="n">
-        <v>5.919107827245629</v>
+        <v>5.595979171752629</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.049116400082998</v>
+        <v>-2.31149846100623</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699588756925112</v>
+        <v>1.69108341308786</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.881613810865585</v>
       </c>
       <c r="E24" t="n">
-        <v>5.969137180676565</v>
+        <v>5.704747545878464</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.246854208286411</v>
+        <v>-2.435347733785337</v>
       </c>
       <c r="G24" t="n">
-        <v>1.799853007055049</v>
+        <v>1.82156618314728</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.945473621451578</v>
       </c>
       <c r="E25" t="n">
-        <v>6.025079105147896</v>
+        <v>5.770350613869485</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.450454878995064</v>
+        <v>-2.676980008292615</v>
       </c>
       <c r="G25" t="n">
-        <v>1.868325751830169</v>
+        <v>1.888029239292515</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.98237122243251</v>
       </c>
       <c r="E26" t="n">
-        <v>6.013626014679922</v>
+        <v>5.814740640723208</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.573333463017126</v>
+        <v>-2.763918101556284</v>
       </c>
       <c r="G26" t="n">
-        <v>1.94758860329764</v>
+        <v>2.036388174466743</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.988666796811891</v>
       </c>
       <c r="E27" t="n">
-        <v>5.931401388406162</v>
+        <v>5.841246573493325</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.68390262794106</v>
+        <v>-2.872128398262894</v>
       </c>
       <c r="G27" t="n">
-        <v>1.929058603217357</v>
+        <v>1.968613178945822</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.962499137601006</v>
       </c>
       <c r="E28" t="n">
-        <v>5.772152319548598</v>
+        <v>5.674008763611715</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.684950776624051</v>
+        <v>-2.915901185391748</v>
       </c>
       <c r="G28" t="n">
-        <v>1.915642788011607</v>
+        <v>2.009621195646978</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.903869877724898</v>
       </c>
       <c r="E29" t="n">
-        <v>5.538617351945827</v>
+        <v>5.537315781221647</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.651666795373233</v>
+        <v>-2.966625848394177</v>
       </c>
       <c r="G29" t="n">
-        <v>1.867667037499281</v>
+        <v>1.978343243501984</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.813252582993533</v>
       </c>
       <c r="E30" t="n">
-        <v>5.355591135425916</v>
+        <v>5.423988859957797</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.6085426588841</v>
+        <v>-2.9577539422302</v>
       </c>
       <c r="G30" t="n">
-        <v>1.824155296420075</v>
+        <v>1.969328005978971</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.694765961399338</v>
       </c>
       <c r="E31" t="n">
-        <v>5.132694404266985</v>
+        <v>5.283387505871127</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.503530786206356</v>
+        <v>-2.947144372058168</v>
       </c>
       <c r="G31" t="n">
-        <v>1.695709051500318</v>
+        <v>1.835605337284666</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.553337806425297</v>
       </c>
       <c r="E32" t="n">
-        <v>4.771262730274207</v>
+        <v>4.989938810350042</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.35120675671259</v>
+        <v>-2.87359952693521</v>
       </c>
       <c r="G32" t="n">
-        <v>1.591280262989546</v>
+        <v>1.794801644010221</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.393379483042971</v>
       </c>
       <c r="E33" t="n">
-        <v>4.44890623435797</v>
+        <v>4.66927301454975</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.203314410856074</v>
+        <v>-2.85574043959935</v>
       </c>
       <c r="G33" t="n">
-        <v>1.446509491156627</v>
+        <v>1.642365999032609</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.222110944260872</v>
       </c>
       <c r="E34" t="n">
-        <v>4.070096700443286</v>
+        <v>4.366398604890199</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.967502304406664</v>
+        <v>-2.640517120474586</v>
       </c>
       <c r="G34" t="n">
-        <v>1.299826618002102</v>
+        <v>1.462483923601335</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.045746748539748</v>
       </c>
       <c r="E35" t="n">
-        <v>3.702453594278506</v>
+        <v>4.057603085300779</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.814479915738021</v>
+        <v>-2.55154738143667</v>
       </c>
       <c r="G35" t="n">
-        <v>1.189644447747566</v>
+        <v>1.349477210692778</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8691533999008711</v>
       </c>
       <c r="E36" t="n">
-        <v>3.326631451838534</v>
+        <v>3.67286024304269</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.676143197124117</v>
+        <v>-2.468753699171505</v>
       </c>
       <c r="G36" t="n">
-        <v>1.121590108556694</v>
+        <v>1.30177958400905</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6985208182092015</v>
       </c>
       <c r="E37" t="n">
-        <v>2.988942769950204</v>
+        <v>3.298769055483329</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.547629860929917</v>
+        <v>-2.489370237886943</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9939849442501724</v>
+        <v>1.204881486094086</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5372173281634186</v>
       </c>
       <c r="E38" t="n">
-        <v>2.659436783861127</v>
+        <v>3.016874697262558</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.449468007372731</v>
+        <v>-2.405212772988569</v>
       </c>
       <c r="G38" t="n">
-        <v>0.913075306955482</v>
+        <v>1.109533196618739</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3871881713058304</v>
       </c>
       <c r="E39" t="n">
-        <v>2.346518200496889</v>
+        <v>2.703394986875713</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.294873243199432</v>
+        <v>-2.323194909824227</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7925848673432264</v>
+        <v>0.9488935086181884</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2524824711459743</v>
       </c>
       <c r="E40" t="n">
-        <v>2.067660027404969</v>
+        <v>2.39896040012504</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.204266477065124</v>
+        <v>-2.279690487793142</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7105548057653499</v>
+        <v>0.8694690281713796</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1332462647055169</v>
       </c>
       <c r="E41" t="n">
-        <v>1.741882486412853</v>
+        <v>2.047614984363645</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.10392293724721</v>
+        <v>-2.152770264406608</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6113963418223576</v>
+        <v>0.7664894111885607</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.02962635158894485</v>
       </c>
       <c r="E42" t="n">
-        <v>1.447778126164262</v>
+        <v>1.721714239394825</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.019906364025165</v>
+        <v>-2.049510693833162</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5698900199282988</v>
+        <v>0.7065396979503173</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.05825458040939011</v>
       </c>
       <c r="E43" t="n">
-        <v>1.219609240675521</v>
+        <v>1.516380784043531</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.911446609761765</v>
+        <v>-1.932556574304692</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4854971256487002</v>
+        <v>0.5856168245782474</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.132379134352116</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9978274445136851</v>
+        <v>1.224255006470311</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.851136433403563</v>
+        <v>-1.920965031843095</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4463591257424541</v>
+        <v>0.5784234201166808</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1941650383688592</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8099535784549808</v>
+        <v>0.9760032628582861</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.755159925631166</v>
+        <v>-1.86779763653029</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3698628744647127</v>
+        <v>0.4926649134418434</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.2457867139992016</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6500933690793149</v>
+        <v>0.802845562888159</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.674014858955251</v>
+        <v>-1.767217447489798</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2854986464569213</v>
+        <v>0.3909380735290651</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.2908004985038505</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4729272704215995</v>
+        <v>0.5937885418053179</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.607144375797947</v>
+        <v>-1.665025848021338</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2454128298190087</v>
+        <v>0.332367390940949</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.3316877188448181</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3459454450467143</v>
+        <v>0.5302018715716259</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.523049732729278</v>
+        <v>-1.614843404500538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.16004467237729</v>
+        <v>0.2606407193553774</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.3710160262008399</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2289053267028225</v>
+        <v>0.4086404112510007</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.403115540774217</v>
+        <v>-1.495328837971079</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09924777931904358</v>
+        <v>0.1827123743286316</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.4102730752356407</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1310197672122034</v>
+        <v>0.353029673707143</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.316169518541751</v>
+        <v>-1.438109739602637</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07995659823417926</v>
+        <v>0.1405961317578247</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.449716257730629</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.02918138782176474</v>
+        <v>0.1162798142172331</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.228402543078382</v>
+        <v>-1.294839372634518</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04350834851239206</v>
+        <v>0.1166244193995958</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.4901781869832343</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.08523126825288102</v>
+        <v>0.1281604590796085</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.141905422464003</v>
+        <v>-1.209609057265744</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.0037690428250569</v>
+        <v>0.03858323904765149</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.5318569729479194</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1827350173998558</v>
+        <v>-0.02650627573354775</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.089595575622706</v>
+        <v>-1.160160958239749</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02665204677529054</v>
+        <v>0.02273140065896947</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.5743726778935762</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3124236707381489</v>
+        <v>-0.1292858387343932</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.020073767283578</v>
+        <v>-1.071690134315413</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1007946141614612</v>
+        <v>-0.07986884566291209</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.6180648796996778</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3864021694622743</v>
+        <v>-0.09802191476496454</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9731574489867643</v>
+        <v>-0.9784966945910167</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1135840408321912</v>
+        <v>-0.08359668083919622</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.6621109840412244</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4594011355795424</v>
+        <v>-0.1516870053499959</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9430847000990246</v>
+        <v>-0.9015228754233816</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1623978223543686</v>
+        <v>-0.1229560819511019</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.7056527902270084</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5390189608808803</v>
+        <v>-0.2613617216014782</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9481946155288198</v>
+        <v>-0.8984293577509155</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2039980720326466</v>
+        <v>-0.1446454711369396</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.7481970985470453</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5961197346380336</v>
+        <v>-0.2705007730218711</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9035978255656785</v>
+        <v>-0.8314307912514948</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2348411507351191</v>
+        <v>-0.2255508389868927</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.7883858269708504</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6699298952553765</v>
+        <v>-0.4023119503152474</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9160493561814901</v>
+        <v>-0.8661218595035708</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2602791124002504</v>
+        <v>-0.1945034368577096</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.8260561106127337</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.783387949464727</v>
+        <v>-0.5566298105013038</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9483135500607857</v>
+        <v>-0.8649776483139915</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2769561734645725</v>
+        <v>-0.237310719555272</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.8617368010302028</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8369078789286923</v>
+        <v>-0.5718863663094796</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.980527120523911</v>
+        <v>-0.8788557833927167</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3245440144264863</v>
+        <v>-0.2687490808382507</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.8945374655855383</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.8790302207062667</v>
+        <v>-0.6497683573647927</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9764369924656385</v>
+        <v>-0.7834989550278951</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3280492285557574</v>
+        <v>-0.2851803438698434</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.9249719702704701</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9527781694145814</v>
+        <v>-0.7357665628655922</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.028818809946792</v>
+        <v>-0.8686688882496707</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.346071164712309</v>
+        <v>-0.3035334669538692</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.9534787441905029</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9782942009263363</v>
+        <v>-0.8207230238505059</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.071643170423303</v>
+        <v>-0.9011746107169585</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3646670362256805</v>
+        <v>-0.3191132807207215</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.979218744298553</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.050889399555597</v>
+        <v>-0.8844548552052639</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.118481418873494</v>
+        <v>-0.9474566115099546</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.399126944541269</v>
+        <v>-0.3643242608053481</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.003060889383734</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.070947250931134</v>
+        <v>-0.9016119238421868</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.175813352567134</v>
+        <v>-0.9355479102964488</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4387913059915488</v>
+        <v>-0.435113484310758</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.024811389305426</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.095093400602913</v>
+        <v>-0.9605253818506352</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.239993475619302</v>
+        <v>-0.9578185538872274</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4627581389843637</v>
+        <v>-0.4669983075291162</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.043107994934229</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.143024016985159</v>
+        <v>-1.07646398345232</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.317194185278688</v>
+        <v>-1.036993576777246</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4862199576568312</v>
+        <v>-0.5142610607703232</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.058509168172418</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.153727514941411</v>
+        <v>-1.077447175583238</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.393175663505254</v>
+        <v>-1.095092790682236</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4770144248826728</v>
+        <v>-0.503863742993799</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.07020992535726</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.205240195458198</v>
+        <v>-1.139044284569378</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.413858683574457</v>
+        <v>-1.064501609219261</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4971399774533284</v>
+        <v>-0.5329099953825718</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.076662461590298</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.203512900101648</v>
+        <v>-1.158356812877928</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.495983892777907</v>
+        <v>-1.189008376487902</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5204804219111231</v>
+        <v>-0.5556234413846695</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.077996669783365</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.245820657764953</v>
+        <v>-1.231268560338421</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.5890803551147</v>
+        <v>-1.295338287748098</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5272230949925729</v>
+        <v>-0.5521633613854777</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.072796243194315</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.189526199142461</v>
+        <v>-1.160812963443193</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.644272077153632</v>
+        <v>-1.37046343734451</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5585724078567463</v>
+        <v>-0.6472762214796002</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.059789632388889</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.142354934002766</v>
+        <v>-1.05698433687834</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.717833390134861</v>
+        <v>-1.440819007248752</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5540077615119638</v>
+        <v>-0.6099484661419422</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.038782222670134</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.079499558660495</v>
+        <v>-1.031693976016982</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.726623566928154</v>
+        <v>-1.454646518911307</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.571643617880134</v>
+        <v>-0.6398205511270318</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.008599826091248</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9912422069730209</v>
+        <v>-0.9128301948496138</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.743066418452605</v>
+        <v>-1.548460857884633</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5305093475988915</v>
+        <v>-0.5679090735764056</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.9693646174971513</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9010562861056693</v>
+        <v>-0.8728822202846462</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.756610926921149</v>
+        <v>-1.541105214523051</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.524363786859978</v>
+        <v>-0.5833059111402336</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.9214604897130816</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8063648811991798</v>
+        <v>-0.7468506513241346</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.779580539607481</v>
+        <v>-1.587531766516437</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4805879501277396</v>
+        <v>-0.4933578593368138</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8644400035144256</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6048208630125214</v>
+        <v>-0.5058929490853399</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.772195010132739</v>
+        <v>-1.582044310187734</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4264318733979261</v>
+        <v>-0.4701326898869245</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7989253621268367</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4227985759265379</v>
+        <v>-0.345521626182559</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.805113038977509</v>
+        <v>-1.683782128672694</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4034067579300102</v>
+        <v>-0.4228735961697779</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7257078630432701</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1748889978141688</v>
+        <v>-0.03354963970863432</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.76031131566698</v>
+        <v>-1.642076362717338</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3790495757040764</v>
+        <v>-0.3632282333492318</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6448749034939597</v>
       </c>
       <c r="E82" t="n">
-        <v>0.03746342468514206</v>
+        <v>0.1772517545097062</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.765328523153909</v>
+        <v>-1.724254025098988</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2915180296219324</v>
+        <v>-0.2412111622830758</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5579674863008224</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3155140628010467</v>
+        <v>0.3797423695866777</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.724453469160285</v>
+        <v>-1.703300810169985</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2396430562231566</v>
+        <v>-0.2072623674946022</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4659781370840604</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6083662559002733</v>
+        <v>0.7066366753379203</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.670981113509106</v>
+        <v>-1.652545041213042</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1609980544012318</v>
+        <v>-0.1249840682012892</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3701644076056277</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8642383484475883</v>
+        <v>0.9321786324719079</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.625545682615436</v>
+        <v>-1.62837510463487</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08797652121892402</v>
+        <v>-0.06159745194957052</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2742570900716136</v>
       </c>
       <c r="E86" t="n">
-        <v>1.119590788578314</v>
+        <v>1.100618596007389</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.49745746113293</v>
+        <v>-1.475947388626056</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05260051204685991</v>
+        <v>-0.04998151266090375</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.181990211106925</v>
       </c>
       <c r="E87" t="n">
-        <v>1.340296074745689</v>
+        <v>1.272834578452617</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.360985879948522</v>
+        <v>-1.34736025202997</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01407662625591453</v>
+        <v>0.05481078857321033</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.09703216648510234</v>
       </c>
       <c r="E88" t="n">
-        <v>1.559522303271951</v>
+        <v>1.50463981101613</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.247875480524917</v>
+        <v>-1.26967831495663</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04419694895644062</v>
+        <v>0.09557056755892954</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02474326092753196</v>
       </c>
       <c r="E89" t="n">
-        <v>1.725881827379044</v>
+        <v>1.671890429231953</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.129910722435076</v>
+        <v>-1.118879087154734</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06290382603298031</v>
+        <v>0.08466274617596728</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03074295346193293</v>
       </c>
       <c r="E90" t="n">
-        <v>1.847981237736561</v>
+        <v>1.792373549796087</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.02048424389903</v>
+        <v>-1.012309477068576</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1209646149353349</v>
+        <v>0.1079891624581967</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06612434399255283</v>
       </c>
       <c r="E91" t="n">
-        <v>1.951963564311954</v>
+        <v>1.867032110074787</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8327104048313122</v>
+        <v>-0.7513360079809398</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1234994452678999</v>
+        <v>0.110670983673858</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.07909478950552096</v>
       </c>
       <c r="E92" t="n">
-        <v>2.058555741463151</v>
+        <v>1.969769588548937</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6781516259779403</v>
+        <v>-0.5915721660722</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1591450393790866</v>
+        <v>0.1602099608806887</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07008837571929273</v>
       </c>
       <c r="E93" t="n">
-        <v>2.064847683164484</v>
+        <v>1.985962982516598</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4906888464553643</v>
+        <v>-0.3262243458909272</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1525145917021585</v>
+        <v>0.1320096684705655</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0430019495844692</v>
       </c>
       <c r="E94" t="n">
-        <v>2.065172770885191</v>
+        <v>2.023489571994875</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3819820743178811</v>
+        <v>-0.1735422929599091</v>
       </c>
       <c r="G94" t="n">
-        <v>0.119047024327639</v>
+        <v>0.09115352201792011</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.005127347677292579</v>
       </c>
       <c r="E95" t="n">
-        <v>2.010392745303064</v>
+        <v>1.977827860530132</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2396558645573683</v>
+        <v>-0.07273460350699006</v>
       </c>
       <c r="G95" t="n">
-        <v>0.107044395329914</v>
+        <v>0.07768037426855551</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03321515577675999</v>
       </c>
       <c r="E96" t="n">
-        <v>1.918949777920935</v>
+        <v>1.925997411340759</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1123038173316971</v>
+        <v>0.04810593057371892</v>
       </c>
       <c r="G96" t="n">
-        <v>0.08338740204088708</v>
+        <v>0.005299257796833225</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06221272319871615</v>
       </c>
       <c r="E97" t="n">
-        <v>1.772658473840883</v>
+        <v>1.776074029630672</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.01701651992402472</v>
+        <v>0.1494570593496204</v>
       </c>
       <c r="G97" t="n">
-        <v>0.06729586482624307</v>
+        <v>0.0631423050175888</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0765748429762108</v>
       </c>
       <c r="E98" t="n">
-        <v>1.60717845534966</v>
+        <v>1.604558846043028</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02549129172125443</v>
+        <v>0.1904278708894945</v>
       </c>
       <c r="G98" t="n">
-        <v>0.04336684691538651</v>
+        <v>0.03037919602471337</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.07640018153573917</v>
       </c>
       <c r="E99" t="n">
-        <v>1.423961943578604</v>
+        <v>1.46389528004733</v>
       </c>
       <c r="F99" t="n">
-        <v>0.05772620940806604</v>
+        <v>0.1995577734997362</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02339255467256436</v>
+        <v>0.02238252603186958</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.06981076187868798</v>
       </c>
       <c r="E100" t="n">
-        <v>1.265730222409856</v>
+        <v>1.367934630212528</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0842748366255555</v>
+        <v>0.2119257449828333</v>
       </c>
       <c r="G100" t="n">
-        <v>0.008346421497866522</v>
+        <v>0.01117462367594727</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.06484470155185879</v>
       </c>
       <c r="E101" t="n">
-        <v>1.118119659905998</v>
+        <v>1.235928278302592</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1345719452335841</v>
+        <v>0.2528691100922537</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01913843395843121</v>
+        <v>-0.07237718999041569</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07189737318051</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9638066790853552</v>
+        <v>1.073102634596577</v>
       </c>
       <c r="F102" t="n">
-        <v>0.09693557003349169</v>
+        <v>0.2017730053976851</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.02787554765284714</v>
+        <v>-0.04737166208509881</v>
       </c>
     </row>
   </sheetData>
